--- a/product_details.xlsx
+++ b/product_details.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Products" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Products!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Products!$A$1:$F$24</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="94">
   <si>
     <t>UPC</t>
   </si>
@@ -40,19 +40,265 @@
     <t>#0000000004011</t>
   </si>
   <si>
+    <t>#0000000004087</t>
+  </si>
+  <si>
+    <t>#0000000004062</t>
+  </si>
+  <si>
+    <t>#0000000004046</t>
+  </si>
+  <si>
+    <t>#0000000004093</t>
+  </si>
+  <si>
+    <t>#0000000004065</t>
+  </si>
+  <si>
+    <t>#0000000004889</t>
+  </si>
+  <si>
+    <t>#0000000094011</t>
+  </si>
+  <si>
+    <t>#0000000004225</t>
+  </si>
+  <si>
+    <t>#0000000004061</t>
+  </si>
+  <si>
+    <t>#0000000004022</t>
+  </si>
+  <si>
+    <t>#0000000004070</t>
+  </si>
+  <si>
+    <t>#0000000004023</t>
+  </si>
+  <si>
+    <t>#0000000004068</t>
+  </si>
+  <si>
+    <t>#0003338321000</t>
+  </si>
+  <si>
+    <t>#0000000004166</t>
+  </si>
+  <si>
+    <t>#0000000003082</t>
+  </si>
+  <si>
+    <t>#0000000004053</t>
+  </si>
+  <si>
+    <t>#0000000004048</t>
+  </si>
+  <si>
+    <t>#0000000003283</t>
+  </si>
+  <si>
+    <t>#0000000004082</t>
+  </si>
+  <si>
+    <t>#0001111049213</t>
+  </si>
+  <si>
+    <t>#0000000004608</t>
+  </si>
+  <si>
     <t>Fresh Fruits &amp; Vegetables</t>
   </si>
   <si>
+    <t>Natural &amp; Organic</t>
+  </si>
+  <si>
+    <t>Beverages</t>
+  </si>
+  <si>
     <t>Fresh Banana - Single</t>
   </si>
   <si>
+    <t>Fresh Roma Tomato</t>
+  </si>
+  <si>
+    <t>Cucumber</t>
+  </si>
+  <si>
+    <t>Medium Avocado</t>
+  </si>
+  <si>
+    <t>Medium Yellow Onions</t>
+  </si>
+  <si>
+    <t>Fresh Large Green Bell Pepper</t>
+  </si>
+  <si>
+    <t>Cilantro</t>
+  </si>
+  <si>
+    <t>Fresh Organic Banana - Single</t>
+  </si>
+  <si>
+    <t>Large Avocado</t>
+  </si>
+  <si>
+    <t>Iceberg Lettuce</t>
+  </si>
+  <si>
+    <t>Green White Seedless Grapes</t>
+  </si>
+  <si>
+    <t>Celery</t>
+  </si>
+  <si>
+    <t>Red Seedless Grapes</t>
+  </si>
+  <si>
+    <t>Green Onions</t>
+  </si>
+  <si>
+    <t>Fresh Red Raspberries</t>
+  </si>
+  <si>
+    <t>Sweet Jumbo Yellow Onions</t>
+  </si>
+  <si>
+    <t>Broccoli Crowns</t>
+  </si>
+  <si>
+    <t>Fresh Lemon - Each</t>
+  </si>
+  <si>
+    <t>Fresh Limes</t>
+  </si>
+  <si>
+    <t>Large Honeycrisp Apple - Each</t>
+  </si>
+  <si>
+    <t>Jumbo Red Onions</t>
+  </si>
+  <si>
+    <t>Kroger® Purified Bottled Water</t>
+  </si>
+  <si>
+    <t>Garlic</t>
+  </si>
+  <si>
     <t>Located in PRODUCE</t>
   </si>
   <si>
+    <t>Located in AISLE 14</t>
+  </si>
+  <si>
     <t>$0.29</t>
   </si>
   <si>
+    <t>$0.60</t>
+  </si>
+  <si>
+    <t>$0.89</t>
+  </si>
+  <si>
+    <t>$0.99</t>
+  </si>
+  <si>
+    <t>$0.32</t>
+  </si>
+  <si>
+    <t>$1.49</t>
+  </si>
+  <si>
+    <t>$1.99</t>
+  </si>
+  <si>
+    <t>$6.38</t>
+  </si>
+  <si>
+    <t>$2.49</t>
+  </si>
+  <si>
+    <t>$3.99</t>
+  </si>
+  <si>
+    <t>$1.23</t>
+  </si>
+  <si>
+    <t>$0.50</t>
+  </si>
+  <si>
+    <t>$0.75</t>
+  </si>
+  <si>
+    <t>$4.39</t>
+  </si>
+  <si>
     <t>https://www.kroger.com/product/images/large/front/0000000004011</t>
+  </si>
+  <si>
+    <t>https://www.kroger.com/product/images/large/front/0000000004087</t>
+  </si>
+  <si>
+    <t>https://www.kroger.com/product/images/large/front/0000000004062</t>
+  </si>
+  <si>
+    <t>https://www.kroger.com/product/images/large/front/0000000004046</t>
+  </si>
+  <si>
+    <t>https://www.kroger.com/product/images/large/front/0000000004093</t>
+  </si>
+  <si>
+    <t>https://www.kroger.com/product/images/large/front/0000000004065</t>
+  </si>
+  <si>
+    <t>https://www.kroger.com/product/images/large/front/0000000004889</t>
+  </si>
+  <si>
+    <t>https://www.kroger.com/product/images/large/front/0000000094011</t>
+  </si>
+  <si>
+    <t>https://www.kroger.com/product/images/large/front/0000000004225</t>
+  </si>
+  <si>
+    <t>https://www.kroger.com/product/images/large/front/0000000004061</t>
+  </si>
+  <si>
+    <t>https://www.kroger.com/product/images/large/front/0000000004022</t>
+  </si>
+  <si>
+    <t>https://www.kroger.com/product/images/large/front/0000000004070</t>
+  </si>
+  <si>
+    <t>https://www.kroger.com/product/images/large/front/0000000004023</t>
+  </si>
+  <si>
+    <t>https://www.kroger.com/product/images/large/front/0000000004068</t>
+  </si>
+  <si>
+    <t>https://www.kroger.com/product/images/large/front/0003338321000</t>
+  </si>
+  <si>
+    <t>https://www.kroger.com/product/images/large/front/0000000004166</t>
+  </si>
+  <si>
+    <t>https://www.kroger.com/product/images/large/front/0000000003082</t>
+  </si>
+  <si>
+    <t>https://www.kroger.com/product/images/large/front/0000000004053</t>
+  </si>
+  <si>
+    <t>https://www.kroger.com/product/images/large/front/0000000004048</t>
+  </si>
+  <si>
+    <t>https://www.kroger.com/product/images/large/front/0000000003283</t>
+  </si>
+  <si>
+    <t>https://www.kroger.com/product/images/large/front/0000000004082</t>
+  </si>
+  <si>
+    <t>https://www.kroger.com/product/images/large/front/0001111049213</t>
+  </si>
+  <si>
+    <t>https://www.kroger.com/product/images/large/front/0000000004608</t>
   </si>
 </sst>
 </file>
@@ -429,7 +675,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,25 +714,487 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F2"/>
+  <autoFilter ref="A1:F24"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
+    <hyperlink ref="F11" r:id="rId10"/>
+    <hyperlink ref="F12" r:id="rId11"/>
+    <hyperlink ref="F13" r:id="rId12"/>
+    <hyperlink ref="F14" r:id="rId13"/>
+    <hyperlink ref="F15" r:id="rId14"/>
+    <hyperlink ref="F16" r:id="rId15"/>
+    <hyperlink ref="F17" r:id="rId16"/>
+    <hyperlink ref="F18" r:id="rId17"/>
+    <hyperlink ref="F19" r:id="rId18"/>
+    <hyperlink ref="F20" r:id="rId19"/>
+    <hyperlink ref="F21" r:id="rId20"/>
+    <hyperlink ref="F22" r:id="rId21"/>
+    <hyperlink ref="F23" r:id="rId22"/>
+    <hyperlink ref="F24" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
